--- a/URS/DbLayouts/L1-顧客管理作業/BankRelationSuspected.xlsx
+++ b/URS/DbLayouts/L1-顧客管理作業/BankRelationSuspected.xlsx
@@ -182,11 +182,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>是否為疑似準利害關係人檔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>BankRelationSuspected</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否為疑似準利害關係人檔</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +786,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -806,10 +806,10 @@
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
